--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innowise1-my.sharepoint.com/personal/akash_kumar_innowise_us/Documents/Documents/UiPath/Backup/New/Innowise/New folder/KWE_AI/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Kumar\Downloads\KWE_AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EEB94D6B-17D7-4955-A92E-691E3C94FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D542E5D-971A-4536-B9DC-FBB3A8EAA38E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9270C09-E576-481B-8883-F297CD8677C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="362">
   <si>
     <t>Name</t>
   </si>
@@ -622,9 +622,6 @@
     <t>-5000k</t>
   </si>
   <si>
-    <t>+5000k</t>
-  </si>
-  <si>
     <t>Col_-100k</t>
   </si>
   <si>
@@ -928,18 +925,9 @@
     <t>Hot Folder</t>
   </si>
   <si>
-    <t>Mapping file\Mapping file.xlsx</t>
-  </si>
-  <si>
-    <t>Macros\SheetChange.txt</t>
-  </si>
-  <si>
     <t>AbbyOutputFolderPath</t>
   </si>
   <si>
-    <t>Abby Output</t>
-  </si>
-  <si>
     <t>BRE_AbbyoutputfolderNotFound</t>
   </si>
   <si>
@@ -1058,6 +1046,73 @@
   </si>
   <si>
     <t>C:\Users\Akash Kumar\Downloads\New\Innowise\New folder\KWE_AI\Shared Folder</t>
+  </si>
+  <si>
+    <t>Macros_KWE AI\SheetChange.txt</t>
+  </si>
+  <si>
+    <t>Abby Output_KWE AI</t>
+  </si>
+  <si>
+    <t>Mapping file_KWE AI\Mapping file.xlsx</t>
+  </si>
+  <si>
+    <t>Status_Success</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Comments_Success</t>
+  </si>
+  <si>
+    <t>Transaction processed successfully</t>
+  </si>
+  <si>
+    <t>Status_Failed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>RequiredColumns_Japan</t>
+  </si>
+  <si>
+    <t>+5001k</t>
+  </si>
+  <si>
+    <t>Port from,Port       to,Service level 1,Carrier
+(Air line),Min.,-45K,-100K,-300K,-500k,-1000k,-3000k,-5000k,+5001k</t>
+  </si>
+  <si>
+    <t>RequiredColumns_Chicago</t>
+  </si>
+  <si>
+    <t>Service ,Dest,Airline,Under45kg,Under100kg,Under300kg,Under500kg,Under1000kg,Over1000kg,Over3000kg,MIN</t>
+  </si>
+  <si>
+    <t>RequiredColumns_Portland</t>
+  </si>
+  <si>
+    <t>RequiredColumns_Taiwan</t>
+  </si>
+  <si>
+    <t>RequiredColumns_Korea</t>
+  </si>
+  <si>
+    <t>Min,-45kg,+45kg,+100kg,+300kg,+500kg</t>
+  </si>
+  <si>
+    <t>BRE_MappingFileColumnsNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required column is not present in the mapping file. Column: </t>
+  </si>
+  <si>
+    <t>BRE_NoDatainReqColumnMappingFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no data in required column of mapping file, Column: </t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1190,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1532,7 +1583,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1649,10 +1700,10 @@
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s">
         <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
@@ -1660,7 +1711,7 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
@@ -1713,18 +1764,18 @@
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
@@ -1812,23 +1863,23 @@
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -1848,7 +1899,7 @@
         <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
@@ -1878,23 +1929,23 @@
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s">
         <v>281</v>
-      </c>
-      <c r="B56" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -1907,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
@@ -1915,7 +1966,7 @@
         <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
@@ -1923,7 +1974,7 @@
         <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
@@ -1990,7 +2041,7 @@
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>192</v>
@@ -1998,7 +2049,7 @@
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>193</v>
@@ -2006,7 +2057,7 @@
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>194</v>
@@ -2014,7 +2065,7 @@
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>195</v>
@@ -2022,7 +2073,7 @@
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>196</v>
@@ -2030,7 +2081,7 @@
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>197</v>
@@ -2038,360 +2089,360 @@
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1">
       <c r="A92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" customHeight="1">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" customHeight="1">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" customHeight="1">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="122" spans="1:2" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="124" spans="1:2" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3277,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3649,10 +3700,10 @@
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
@@ -3721,94 +3772,108 @@
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s">
         <v>266</v>
-      </c>
-      <c r="B54" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" t="s">
         <v>283</v>
-      </c>
-      <c r="B56" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" t="s">
         <v>285</v>
-      </c>
-      <c r="B57" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" t="s">
         <v>287</v>
-      </c>
-      <c r="B58" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
         <v>297</v>
-      </c>
-      <c r="B59" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+    </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3824,7 +3889,7 @@
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -3832,7 +3897,7 @@
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3840,7 +3905,7 @@
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -3848,119 +3913,175 @@
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" t="s">
         <v>275</v>
-      </c>
-      <c r="B78" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" t="s">
         <v>277</v>
-      </c>
-      <c r="B79" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>294</v>
+      </c>
+      <c r="B80" t="s">
         <v>295</v>
-      </c>
-      <c r="B80" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>345</v>
+      </c>
+      <c r="B91" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>356</v>
+      </c>
+      <c r="B98" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="100" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
